--- a/FunctionalTesting.xlsx
+++ b/FunctionalTesting.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -112,6 +112,105 @@
   </si>
   <si>
     <t>#3</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Check the ability to start order processing without populating address info (courier transfer)</t>
+  </si>
+  <si>
+    <t>Check the ability to start order processing without populating address info (post transfer)</t>
+  </si>
+  <si>
+    <t>Check the ability to start order processing without populating pick-up address info (self pick-up transfer)</t>
+  </si>
+  <si>
+    <t>2. Add some items to cart</t>
+  </si>
+  <si>
+    <t>3. Go to cart via clicking on cart icon</t>
+  </si>
+  <si>
+    <t>4. Choose transfer option "Курьером" via clicking on related button</t>
+  </si>
+  <si>
+    <t>5. Click on "Перейти к оформлению" button to start order proccessing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fields populating errors displayed </t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>4. Choose transfer option "Почтой" via clicking on related button</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>4. Choose transfer option "Самовывоз" via clicking on related button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick-up point field populating errors displayed </t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>Check the ability to select self pick-up point while proccessing order</t>
+  </si>
+  <si>
+    <t>5. Click on "Внести данные для доставки" link</t>
+  </si>
+  <si>
+    <t>Select pick-up point dialog (yandex maps) opens</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>Check the disability of proceeding order without populating "Индекс" field using post transfer</t>
+  </si>
+  <si>
+    <t>3. Go to cart and start post transfer order proccessing</t>
+  </si>
+  <si>
+    <t>4. Enter dialog window of adding address info</t>
+  </si>
+  <si>
+    <t>5. Fill only address field and click "Продолжить"</t>
+  </si>
+  <si>
+    <t>Proccess not continued due to validation error</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>Check the disability of proceeding order without populating "Адрес" field using post transfer</t>
+  </si>
+  <si>
+    <t>5. Fill only index field with valid data and click "Продолжить"</t>
+  </si>
+  <si>
+    <t>#9</t>
+  </si>
+  <si>
+    <t>Check the disability of perfoming empty search</t>
+  </si>
+  <si>
+    <t>3. Input no value</t>
+  </si>
+  <si>
+    <t>No items found message displayed</t>
+  </si>
+  <si>
+    <t>#10</t>
   </si>
 </sst>
 </file>
@@ -164,14 +263,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +280,11 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -326,44 +429,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -375,13 +460,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -400,45 +523,187 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>188147</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>112889</xdr:rowOff>
+      <xdr:colOff>150517</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>122296</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>466806</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57193</xdr:rowOff>
+      <xdr:colOff>429176</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="Group 18"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18890073" y="112889"/>
+          <a:off x="21241924" y="301037"/>
           <a:ext cx="5781993" cy="2644230"/>
+          <a:chOff x="21241924" y="301037"/>
+          <a:chExt cx="5781993" cy="2644230"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21241924" y="301037"/>
+            <a:ext cx="5781993" cy="2644230"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="24694444" y="545630"/>
+            <a:ext cx="1618075" cy="282222"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="23292741" y="1128889"/>
+            <a:ext cx="2126074" cy="724370"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="24854371" y="1147704"/>
+            <a:ext cx="555036" cy="780815"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="25418815" y="1147704"/>
+            <a:ext cx="677333" cy="460963"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>185318</xdr:colOff>
@@ -446,37 +711,83 @@
       <xdr:rowOff>65852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>312998</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>385703</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>97742</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="Group 19"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="21276725" y="3123259"/>
-          <a:ext cx="5019532" cy="2355520"/>
+          <a:ext cx="5703719" cy="2355520"/>
+          <a:chOff x="21276725" y="3123259"/>
+          <a:chExt cx="5703719" cy="2355520"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Picture 3"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21276725" y="3123259"/>
+            <a:ext cx="5019532" cy="2355520"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="23612593" y="3358444"/>
+            <a:ext cx="3367851" cy="884297"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>595401</xdr:colOff>
@@ -489,23 +800,335 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>50704</xdr:rowOff>
     </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="Group 22"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="21075327" y="5766741"/>
+          <a:ext cx="7281031" cy="3418556"/>
+          <a:chOff x="21075327" y="5766741"/>
+          <a:chExt cx="7281031" cy="3418556"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Picture 4"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21075327" y="5766741"/>
+            <a:ext cx="7281031" cy="3418556"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="25004889" y="6077185"/>
+            <a:ext cx="2135481" cy="1222963"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>580877</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>37630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>291329</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>19409</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="24" name="Picture 23"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21075327" y="5766741"/>
-          <a:ext cx="7281031" cy="3418556"/>
+          <a:off x="21060803" y="9529704"/>
+          <a:ext cx="6436748" cy="3020372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>517408</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>168904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>210112</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>61044</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20997334" y="12878311"/>
+          <a:ext cx="7030482" cy="3288214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>525915</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>53033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>573851</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>132137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21005841" y="16515996"/>
+          <a:ext cx="7385714" cy="3475178"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28222</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>36592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>379445</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>35690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21119629" y="20253111"/>
+          <a:ext cx="6466038" cy="3037690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>546762</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>551214</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>45522</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21026688" y="23603186"/>
+          <a:ext cx="6730748" cy="3808484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6364</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>138582</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>48725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21097771" y="27723630"/>
+          <a:ext cx="7469996" cy="4159762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>357483</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>52204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>23816</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>48298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21448890" y="32244352"/>
+          <a:ext cx="6392630" cy="2855946"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -780,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K34"/>
+  <dimension ref="A2:K181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="81" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,9 +1418,10 @@
     <col min="6" max="6" width="36.21875" customWidth="1"/>
     <col min="7" max="8" width="11.88671875" customWidth="1"/>
     <col min="9" max="9" width="35.5546875" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
@@ -808,7 +1432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -831,217 +1455,779 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="16"/>
-      <c r="K6" s="18" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="9"/>
+      <c r="K6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="6" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="20" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="20" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="20" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="22" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>3</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="20" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="20" t="s">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="20" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K20" s="18" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>4</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="9"/>
+      <c r="K20" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K21" s="19"/>
-    </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K34" s="18" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="9"/>
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="6"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <v>5</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="6"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="6"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="7"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="5">
+        <v>6</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="6"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="7"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="5">
+        <v>7</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="8">
+        <v>7</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="6"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="6"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="7"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="5">
+        <v>8</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="6"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="6"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="7"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="5">
+        <v>9</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="6"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="6"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B48" s="7"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B49" s="5">
+        <v>10</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="6"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B51" s="6"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="6"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B53" s="7"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K55" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K114" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K133" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="156" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K156" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="181" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K181" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
+  <mergeCells count="60">
+    <mergeCell ref="H49:H53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="G44:G48"/>
+    <mergeCell ref="H44:H48"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="G19:G23"/>
     <mergeCell ref="H14:H18"/>
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="B9:B13"/>
@@ -1055,6 +2241,11 @@
     <mergeCell ref="F5:F8"/>
     <mergeCell ref="G5:G8"/>
     <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://markformelle.by/"/>

--- a/FunctionalTesting.xlsx
+++ b/FunctionalTesting.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -174,30 +174,9 @@
     <t>#7</t>
   </si>
   <si>
-    <t>Check the disability of proceeding order without populating "Индекс" field using post transfer</t>
-  </si>
-  <si>
-    <t>3. Go to cart and start post transfer order proccessing</t>
-  </si>
-  <si>
-    <t>4. Enter dialog window of adding address info</t>
-  </si>
-  <si>
-    <t>5. Fill only address field and click "Продолжить"</t>
-  </si>
-  <si>
-    <t>Proccess not continued due to validation error</t>
-  </si>
-  <si>
     <t>#8</t>
   </si>
   <si>
-    <t>Check the disability of proceeding order without populating "Адрес" field using post transfer</t>
-  </si>
-  <si>
-    <t>5. Fill only index field with valid data and click "Продолжить"</t>
-  </si>
-  <si>
     <t>#9</t>
   </si>
   <si>
@@ -211,13 +190,43 @@
   </si>
   <si>
     <t>#10</t>
+  </si>
+  <si>
+    <t>upd</t>
+  </si>
+  <si>
+    <t>Check the ability to add items to favorites list</t>
+  </si>
+  <si>
+    <t>2. Procceed search of any valid item</t>
+  </si>
+  <si>
+    <t>3. Click on heart icon of particular item to add it to favorites list</t>
+  </si>
+  <si>
+    <t>4. Go to favorites list via clicking on heart icon on layout header</t>
+  </si>
+  <si>
+    <t>Item added to favorites list</t>
+  </si>
+  <si>
+    <t>Check the ability to remove items to favorites list</t>
+  </si>
+  <si>
+    <t>3. Press filled hear icon of particular item to remove it</t>
+  </si>
+  <si>
+    <t>2. Go to favorites list via clicking on heart icon on layout header</t>
+  </si>
+  <si>
+    <t>Item removed from favorites list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,8 +277,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +303,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -429,12 +450,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -442,13 +464,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -460,29 +498,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -493,17 +516,18 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1025,82 +1049,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>546762</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>169334</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>551214</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>45522</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21026688" y="23603186"/>
-          <a:ext cx="6730748" cy="3808484"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>6364</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>138582</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>48725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21097771" y="27723630"/>
-          <a:ext cx="7469996" cy="4159762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>357483</xdr:colOff>
       <xdr:row>180</xdr:row>
@@ -1120,7 +1068,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1129,6 +1077,82 @@
         <a:xfrm>
           <a:off x="21448890" y="32244352"/>
           <a:ext cx="6392630" cy="2855946"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>486396</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>65851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>225883</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>15361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20966322" y="23499703"/>
+          <a:ext cx="8300228" cy="3881806"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>526815</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>62239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>564618</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>175783</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21006741" y="27785869"/>
+          <a:ext cx="8598544" cy="4045840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1405,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="81" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="C62" zoomScale="81" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1456,25 +1480,25 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
+      <c r="B5" s="21">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1482,212 +1506,212 @@
       <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="15" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="9"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="19"/>
       <c r="K6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="15" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="9"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="16" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="10"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
+      <c r="B9" s="21">
         <v>2</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="18" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="9"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="18" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="9"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="18" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="9"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="19" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="10"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="5">
+      <c r="B14" s="21">
         <v>3</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="18" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="9"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="18" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="9"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="18" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="9"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="10"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="5">
+      <c r="B19" s="21">
         <v>4</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="18" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="9"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="19"/>
       <c r="K20" s="4" t="s">
         <v>19</v>
       </c>
@@ -1696,201 +1720,201 @@
       <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="18" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="9"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="19"/>
       <c r="J21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="18" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="9"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="19" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="10"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="5">
+      <c r="B24" s="21">
         <v>5</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="18" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="9"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="18" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="9"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="18" t="s">
+      <c r="B27" s="22"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="9"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="7"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="19" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="10"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="5">
+      <c r="B29" s="21">
         <v>6</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="18">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="18" t="s">
+      <c r="B30" s="22"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="9"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="18" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="9"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="6"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="18" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="9"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="7"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="19" t="s">
+      <c r="B33" s="23"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="10"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="20"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="5">
+      <c r="B34" s="21">
         <v>7</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="18">
         <v>7</v>
       </c>
       <c r="K34" s="4" t="s">
@@ -1898,258 +1922,256 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="6"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="18" t="s">
+      <c r="B35" s="22"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="9"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="19"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="18" t="s">
+      <c r="B36" s="22"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="9"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="19"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="6"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="18" t="s">
+      <c r="B37" s="22"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="9"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="19"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="7"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="19" t="s">
+      <c r="B38" s="23"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="5">
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="20"/>
+    </row>
+    <row r="39" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="21">
         <v>8</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="17" t="s">
+      <c r="C39" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="26" t="s">
+      <c r="E39" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="18">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="6"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="9"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="19"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="9"/>
+        <v>57</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="19"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="6"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="9"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="19"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="7"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="5">
+      <c r="B43" s="23"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="20"/>
+    </row>
+    <row r="44" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="21">
         <v>9</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="17" t="s">
+      <c r="C44" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" s="26" t="s">
+      <c r="E44" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="18">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="6"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="9"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="19"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="22"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="19"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="22"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="19"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B48" s="23"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="20"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B49" s="21">
+        <v>10</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="22"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="19"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="9"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="6"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="9"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="7"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="10"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="5">
-        <v>10</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G49" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="6"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="9"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="6"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="9"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="6"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="16" t="s">
+      <c r="B51" s="22"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="19"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="22"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="9"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="7"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="10"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="19"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B53" s="23"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="20"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C55" s="11"/>
       <c r="K55" s="2" t="s">
         <v>41</v>
       </c>
@@ -2171,17 +2193,17 @@
     </row>
     <row r="133" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K133" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="156" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K156" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="181" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K181" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2216,6 +2238,8 @@
     <mergeCell ref="E29:E33"/>
     <mergeCell ref="F29:F33"/>
     <mergeCell ref="G29:G33"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="E14:E18"/>
     <mergeCell ref="H19:H23"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="C24:C28"/>
@@ -2228,6 +2252,8 @@
     <mergeCell ref="E19:E23"/>
     <mergeCell ref="F19:F23"/>
     <mergeCell ref="G19:G23"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
     <mergeCell ref="H14:H18"/>
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="B9:B13"/>
@@ -2242,10 +2268,6 @@
     <mergeCell ref="G5:G8"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://markformelle.by/"/>
